--- a/input_data/RBRA_16S_515F926R_Q11696_20230330@metadata.xlsx
+++ b/input_data/RBRA_16S_515F926R_Q11696_20230330@metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rita\Documents\R\amendment_micropollutant_biodegradation_aquifer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2F162-8EA7-4B6F-8829-89D97B66AA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB0D82-9032-473B-8A41-0C9F2861E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="185">
   <si>
     <t>yes</t>
   </si>
@@ -92,9 +92,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>extraction_day</t>
   </si>
   <si>
@@ -498,6 +495,105 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>redox_condition</t>
+  </si>
+  <si>
+    <t>Microaerob</t>
+  </si>
+  <si>
+    <t>Microaer</t>
+  </si>
+  <si>
+    <t>day_DOC</t>
+  </si>
+  <si>
+    <t>14_H</t>
+  </si>
+  <si>
+    <t>42_H_D</t>
+  </si>
+  <si>
+    <t>70_D</t>
+  </si>
+  <si>
+    <t>98_D_A</t>
+  </si>
+  <si>
+    <t>126_A</t>
+  </si>
+  <si>
+    <t>154_NH4</t>
+  </si>
+  <si>
+    <t>day_redox</t>
+  </si>
+  <si>
+    <t>column_height</t>
+  </si>
+  <si>
+    <t>14_Aerob</t>
+  </si>
+  <si>
+    <t>Aerob_2.5</t>
+  </si>
+  <si>
+    <t>42_Aerob</t>
+  </si>
+  <si>
+    <t>70_Aerob</t>
+  </si>
+  <si>
+    <t>98_Aerob</t>
+  </si>
+  <si>
+    <t>126_Aerob</t>
+  </si>
+  <si>
+    <t>154_Aerob</t>
+  </si>
+  <si>
+    <t>14_Microaer</t>
+  </si>
+  <si>
+    <t>Aerob_Microaer_2.5</t>
+  </si>
+  <si>
+    <t>Aerob_Microaer_50</t>
+  </si>
+  <si>
+    <t>126_Microaerob</t>
+  </si>
+  <si>
+    <t>154_Microaerob</t>
+  </si>
+  <si>
+    <t>14_Nitrate_red</t>
+  </si>
+  <si>
+    <t>Nitrate_red_2.5</t>
+  </si>
+  <si>
+    <t>42_Nitrate_red</t>
+  </si>
+  <si>
+    <t>70_Nitrate_red</t>
+  </si>
+  <si>
+    <t>98_Nitrate_red</t>
+  </si>
+  <si>
+    <t>126_Nitrate_red</t>
+  </si>
+  <si>
+    <t>154_Nitrate_red</t>
+  </si>
+  <si>
+    <t>Nitrate_red_Microaer_50</t>
+  </si>
+  <si>
+    <t>70_Microaerob</t>
   </si>
 </sst>
 </file>
@@ -505,7 +601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -549,7 +645,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA70F1-5CFE-424C-BF1F-C7FEEFA68F6B}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,45 +942,45 @@
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -893,44 +989,53 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1">
         <v>20220301</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
@@ -955,38 +1060,47 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>20220301</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -1011,38 +1125,47 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>20220301</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>1</v>
       </c>
       <c r="K4" t="s">
@@ -1067,27 +1190,36 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
         <v>20230131</v>
@@ -1096,22 +1228,22 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>42</v>
-      </c>
-      <c r="J5">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
         <v>146</v>
       </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O5" t="s">
         <v>2</v>
@@ -1123,27 +1255,36 @@
         <v>6.1800000000000001E-2</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" t="s">
+        <v>176</v>
+      </c>
+      <c r="U5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>20230131</v>
@@ -1152,19 +1293,19 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>42</v>
-      </c>
-      <c r="J6">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6">
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6">
         <v>2.5</v>
       </c>
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -1179,27 +1320,36 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>20230131</v>
@@ -1208,19 +1358,19 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>42</v>
-      </c>
-      <c r="J7">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7">
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7">
         <v>2.5</v>
       </c>
+      <c r="L7" t="s">
+        <v>154</v>
+      </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
         <v>11</v>
@@ -1235,27 +1385,36 @@
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>20230131</v>
@@ -1264,19 +1423,19 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>42</v>
-      </c>
-      <c r="J8">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8">
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8">
         <v>50</v>
       </c>
+      <c r="L8" t="s">
+        <v>154</v>
+      </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -1291,27 +1450,36 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>156</v>
+      </c>
+      <c r="T8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>20230131</v>
@@ -1320,19 +1488,19 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>42</v>
-      </c>
-      <c r="J9">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9">
+      <c r="J9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9">
         <v>2.5</v>
       </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -1347,27 +1515,36 @@
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -1376,19 +1553,19 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>70</v>
-      </c>
-      <c r="J10">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10">
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10">
         <v>2.5</v>
       </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
         <v>10</v>
@@ -1403,27 +1580,36 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
@@ -1432,19 +1618,19 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11">
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11">
         <v>2.5</v>
       </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>10</v>
@@ -1459,27 +1645,36 @@
         <v>0.64</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="S11" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
@@ -1488,19 +1683,19 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12">
+      <c r="J12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12">
         <v>50</v>
       </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
         <v>10</v>
@@ -1515,27 +1710,36 @@
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" t="s">
+        <v>166</v>
+      </c>
+      <c r="U12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -1544,19 +1748,19 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>70</v>
-      </c>
-      <c r="J13">
         <v>42</v>
       </c>
-      <c r="K13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13">
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13">
         <v>2.5</v>
       </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
         <v>10</v>
@@ -1571,27 +1775,36 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="S13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>20221115</v>
@@ -1600,22 +1813,22 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <v>98</v>
-      </c>
-      <c r="J14">
         <v>70</v>
       </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14">
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14">
         <v>50</v>
       </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>2</v>
@@ -1627,27 +1840,36 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="S14" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" t="s">
+        <v>184</v>
+      </c>
+      <c r="U14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
         <v>20221123</v>
@@ -1656,19 +1878,19 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <v>98</v>
-      </c>
-      <c r="J15">
         <v>70</v>
       </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15">
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15">
         <v>2.5</v>
       </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
         <v>9</v>
@@ -1683,27 +1905,36 @@
         <v>0.19</v>
       </c>
       <c r="R15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2">
         <v>20221123</v>
@@ -1712,19 +1943,19 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>98</v>
-      </c>
-      <c r="J16">
         <v>70</v>
       </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16">
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16">
         <v>2.5</v>
       </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
         <v>9</v>
@@ -1739,27 +1970,36 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="R16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s">
+        <v>158</v>
+      </c>
+      <c r="T16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2">
         <v>20221115</v>
@@ -1768,19 +2008,19 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>98</v>
-      </c>
-      <c r="J17">
         <v>70</v>
       </c>
-      <c r="K17" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17">
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17">
         <v>50</v>
       </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
         <v>9</v>
@@ -1795,27 +2035,36 @@
         <v>1.54E-2</v>
       </c>
       <c r="R17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="S17" t="s">
+        <v>158</v>
+      </c>
+      <c r="T17" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2">
         <v>20221123</v>
@@ -1824,19 +2073,19 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>98</v>
-      </c>
-      <c r="J18">
         <v>70</v>
       </c>
-      <c r="K18" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18">
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18">
         <v>2.5</v>
       </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
         <v>9</v>
@@ -1851,27 +2100,36 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>158</v>
+      </c>
+      <c r="T18" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
@@ -1880,19 +2138,19 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <v>126</v>
-      </c>
-      <c r="J19">
         <v>98</v>
       </c>
-      <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19">
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19">
         <v>2.5</v>
       </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
         <v>8</v>
@@ -1907,27 +2165,36 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
@@ -1936,19 +2203,19 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>126</v>
-      </c>
-      <c r="J20">
         <v>98</v>
       </c>
-      <c r="K20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20">
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20">
         <v>2.5</v>
       </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
         <v>8</v>
@@ -1963,27 +2230,36 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="S20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" t="s">
+        <v>168</v>
+      </c>
+      <c r="U20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
@@ -1992,19 +2268,19 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <v>126</v>
-      </c>
-      <c r="J21">
         <v>98</v>
       </c>
-      <c r="K21" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21">
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21">
         <v>50</v>
       </c>
+      <c r="L21" t="s">
+        <v>147</v>
+      </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
         <v>8</v>
@@ -2019,27 +2295,36 @@
         <v>0.123</v>
       </c>
       <c r="R21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="S21" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" t="s">
+        <v>168</v>
+      </c>
+      <c r="U21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
@@ -2048,19 +2333,19 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <v>126</v>
-      </c>
-      <c r="J22">
         <v>98</v>
       </c>
-      <c r="K22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22">
+      <c r="J22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22">
         <v>2.5</v>
       </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
         <v>8</v>
@@ -2075,27 +2360,36 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="S22" t="s">
+        <v>159</v>
+      </c>
+      <c r="T22" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>5</v>
@@ -2104,22 +2398,22 @@
         <v>4</v>
       </c>
       <c r="I23">
-        <v>154</v>
-      </c>
-      <c r="J23">
         <v>126</v>
       </c>
-      <c r="K23" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23">
+      <c r="J23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23">
         <v>50</v>
       </c>
+      <c r="L23" t="s">
+        <v>153</v>
+      </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s">
         <v>2</v>
@@ -2131,27 +2425,36 @@
         <v>4.07E-2</v>
       </c>
       <c r="R23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="S23" t="s">
+        <v>174</v>
+      </c>
+      <c r="T23" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>5</v>
@@ -2160,19 +2463,19 @@
         <v>4</v>
       </c>
       <c r="I24">
-        <v>154</v>
-      </c>
-      <c r="J24">
         <v>126</v>
       </c>
-      <c r="K24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24">
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24">
         <v>2.5</v>
       </c>
+      <c r="L24" t="s">
+        <v>146</v>
+      </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
         <v>7</v>
@@ -2187,27 +2490,36 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="S24" t="s">
+        <v>160</v>
+      </c>
+      <c r="T24" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>5</v>
@@ -2216,19 +2528,19 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <v>154</v>
-      </c>
-      <c r="J25">
         <v>126</v>
       </c>
-      <c r="K25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25">
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25">
         <v>2.5</v>
       </c>
+      <c r="L25" t="s">
+        <v>153</v>
+      </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" t="s">
         <v>7</v>
@@ -2243,27 +2555,36 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="S25" t="s">
+        <v>160</v>
+      </c>
+      <c r="T25" t="s">
+        <v>174</v>
+      </c>
+      <c r="U25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>5</v>
@@ -2272,19 +2593,19 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <v>154</v>
-      </c>
-      <c r="J26">
         <v>126</v>
       </c>
-      <c r="K26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26">
+      <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26">
         <v>50</v>
       </c>
+      <c r="L26" t="s">
+        <v>153</v>
+      </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
         <v>7</v>
@@ -2299,27 +2620,36 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="R26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="S26" t="s">
+        <v>160</v>
+      </c>
+      <c r="T26" t="s">
+        <v>174</v>
+      </c>
+      <c r="U26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>5</v>
@@ -2328,19 +2658,19 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <v>154</v>
-      </c>
-      <c r="J27">
         <v>126</v>
       </c>
-      <c r="K27" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27">
+      <c r="J27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27">
         <v>2.5</v>
       </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
         <v>7</v>
@@ -2355,27 +2685,36 @@
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="S27" t="s">
+        <v>160</v>
+      </c>
+      <c r="T27" t="s">
+        <v>169</v>
+      </c>
+      <c r="U27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2">
         <v>20230202</v>
@@ -2384,22 +2723,22 @@
         <v>4</v>
       </c>
       <c r="I28">
-        <v>182</v>
-      </c>
-      <c r="J28">
         <v>154</v>
       </c>
-      <c r="K28" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28">
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28">
         <v>50</v>
       </c>
+      <c r="L28" t="s">
+        <v>153</v>
+      </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O28" t="s">
         <v>2</v>
@@ -2411,27 +2750,36 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="R28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="S28" t="s">
+        <v>175</v>
+      </c>
+      <c r="T28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2">
         <v>20230202</v>
@@ -2440,22 +2788,22 @@
         <v>4</v>
       </c>
       <c r="I29">
-        <v>182</v>
-      </c>
-      <c r="J29">
         <v>154</v>
       </c>
-      <c r="K29" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29">
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29">
         <v>2.5</v>
       </c>
+      <c r="L29" t="s">
+        <v>146</v>
+      </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O29" t="s">
         <v>2</v>
@@ -2467,27 +2815,36 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="R29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="S29" t="s">
+        <v>161</v>
+      </c>
+      <c r="T29" t="s">
+        <v>182</v>
+      </c>
+      <c r="U29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2">
         <v>20230202</v>
@@ -2496,22 +2853,22 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <v>182</v>
-      </c>
-      <c r="J30">
         <v>154</v>
       </c>
-      <c r="K30" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30">
+      <c r="J30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30">
         <v>2.5</v>
       </c>
+      <c r="L30" t="s">
+        <v>153</v>
+      </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O30" t="s">
         <v>2</v>
@@ -2523,27 +2880,36 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="S30" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" t="s">
+        <v>175</v>
+      </c>
+      <c r="U30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2">
         <v>20230202</v>
@@ -2552,22 +2918,22 @@
         <v>4</v>
       </c>
       <c r="I31">
-        <v>182</v>
-      </c>
-      <c r="J31">
         <v>154</v>
       </c>
-      <c r="K31" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31">
+      <c r="J31" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31">
         <v>50</v>
       </c>
+      <c r="L31" t="s">
+        <v>153</v>
+      </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O31" t="s">
         <v>2</v>
@@ -2579,27 +2945,36 @@
         <v>9.4200000000000006E-2</v>
       </c>
       <c r="R31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="S31" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" t="s">
+        <v>175</v>
+      </c>
+      <c r="U31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2">
         <v>20230202</v>
@@ -2608,22 +2983,22 @@
         <v>4</v>
       </c>
       <c r="I32">
-        <v>182</v>
-      </c>
-      <c r="J32">
         <v>154</v>
       </c>
-      <c r="K32" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32">
+      <c r="J32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32">
         <v>2.5</v>
       </c>
+      <c r="L32" t="s">
+        <v>147</v>
+      </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O32" t="s">
         <v>2</v>
@@ -2635,27 +3010,36 @@
         <v>0.71199999999999997</v>
       </c>
       <c r="R32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="S32" t="s">
+        <v>161</v>
+      </c>
+      <c r="T32" t="s">
+        <v>170</v>
+      </c>
+      <c r="U32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
         <v>127</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>128</v>
-      </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2">
         <v>20221123</v>
@@ -2663,10 +3047,10 @@
       <c r="H33" s="2">
         <v>4</v>
       </c>
-      <c r="I33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
         <v>1</v>
       </c>
       <c r="K33" t="s">
@@ -2691,27 +3075,36 @@
         <v>1.15E-2</v>
       </c>
       <c r="R33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
         <v>129</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="2">
         <v>20230131</v>
@@ -2719,10 +3112,10 @@
       <c r="H34" s="2">
         <v>4</v>
       </c>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>1</v>
       </c>
       <c r="K34" t="s">
@@ -2747,27 +3140,36 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="R34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2">
         <v>20230202</v>
@@ -2775,10 +3177,10 @@
       <c r="H35" s="2">
         <v>4</v>
       </c>
-      <c r="I35" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
         <v>1</v>
       </c>
       <c r="K35" t="s">
@@ -2803,27 +3205,36 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="R35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
         <v>136</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>1</v>
@@ -2831,10 +3242,10 @@
       <c r="H36" s="2">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
         <v>1</v>
       </c>
       <c r="K36" t="s">
@@ -2844,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" t="s">
         <v>1</v>
@@ -2859,27 +3270,36 @@
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
         <v>138</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>139</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>1</v>
@@ -2887,10 +3307,10 @@
       <c r="H37" s="2">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
         <v>1</v>
       </c>
       <c r="K37" t="s">
@@ -2900,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
         <v>1</v>
@@ -2915,27 +3335,36 @@
         <v>0.1</v>
       </c>
       <c r="R37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
         <v>141</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>143</v>
-      </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>1</v>
@@ -2943,10 +3372,10 @@
       <c r="H38" s="2">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="I38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>1</v>
       </c>
       <c r="K38" t="s">
@@ -2956,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
         <v>1</v>
@@ -2971,10 +3400,24 @@
         <v>0.01</v>
       </c>
       <c r="R38" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{7CDA70F1-5CFE-424C-BF1F-C7FEEFA68F6B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U38">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input_data/RBRA_16S_515F926R_Q11696_20230330@metadata.xlsx
+++ b/input_data/RBRA_16S_515F926R_Q11696_20230330@metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rita\Documents\R\amendment_micropollutant_biodegradation_aquifer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB0D82-9032-473B-8A41-0C9F2861E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E947F-FA01-4B86-85B1-C3322037E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="189">
   <si>
     <t>yes</t>
   </si>
@@ -509,24 +509,6 @@
     <t>day_DOC</t>
   </si>
   <si>
-    <t>14_H</t>
-  </si>
-  <si>
-    <t>42_H_D</t>
-  </si>
-  <si>
-    <t>70_D</t>
-  </si>
-  <si>
-    <t>98_D_A</t>
-  </si>
-  <si>
-    <t>126_A</t>
-  </si>
-  <si>
-    <t>154_NH4</t>
-  </si>
-  <si>
     <t>day_redox</t>
   </si>
   <si>
@@ -594,6 +576,36 @@
   </si>
   <si>
     <t>70_Microaerob</t>
+  </si>
+  <si>
+    <t>Nitrate_red_14</t>
+  </si>
+  <si>
+    <t>H_14</t>
+  </si>
+  <si>
+    <t>H_D_42</t>
+  </si>
+  <si>
+    <t>Microaerob_70</t>
+  </si>
+  <si>
+    <t>D_70</t>
+  </si>
+  <si>
+    <t>D_A_98</t>
+  </si>
+  <si>
+    <t>Microaerob_126</t>
+  </si>
+  <si>
+    <t>A_126</t>
+  </si>
+  <si>
+    <t>Microaerob_154</t>
+  </si>
+  <si>
+    <t>NH4_154</t>
   </si>
 </sst>
 </file>
@@ -928,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA70F1-5CFE-424C-BF1F-C7FEEFA68F6B}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,6 +952,7 @@
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -1001,10 +1014,10 @@
         <v>155</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="U1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1258,13 +1271,13 @@
         <v>41</v>
       </c>
       <c r="S5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1323,13 +1336,13 @@
         <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="T6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1388,13 +1401,13 @@
         <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="T7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1453,13 +1466,13 @@
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1518,13 +1531,13 @@
         <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="T9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1583,13 +1596,13 @@
         <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="T10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1648,13 +1661,13 @@
         <v>59</v>
       </c>
       <c r="S11" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="T11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U11" t="s">
         <v>166</v>
-      </c>
-      <c r="U11" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1713,13 +1726,13 @@
         <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="T12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1778,13 +1791,13 @@
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1843,13 +1856,13 @@
         <v>68</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="U14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1908,13 +1921,13 @@
         <v>71</v>
       </c>
       <c r="S15" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1973,13 +1986,13 @@
         <v>74</v>
       </c>
       <c r="S16" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="U16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2038,13 +2051,13 @@
         <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="T17" t="s">
+        <v>161</v>
+      </c>
+      <c r="U17" t="s">
         <v>167</v>
-      </c>
-      <c r="U17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -2103,13 +2116,13 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="T18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="U18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2168,13 +2181,13 @@
         <v>83</v>
       </c>
       <c r="S19" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="T19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -2233,13 +2246,13 @@
         <v>86</v>
       </c>
       <c r="S20" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="T20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="U20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -2298,13 +2311,13 @@
         <v>89</v>
       </c>
       <c r="S21" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="U21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -2363,13 +2376,13 @@
         <v>92</v>
       </c>
       <c r="S22" t="s">
+        <v>184</v>
+      </c>
+      <c r="T22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U22" t="s">
         <v>159</v>
-      </c>
-      <c r="T22" t="s">
-        <v>168</v>
-      </c>
-      <c r="U22" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2428,13 +2441,13 @@
         <v>95</v>
       </c>
       <c r="S23" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="T23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -2493,13 +2506,13 @@
         <v>98</v>
       </c>
       <c r="S24" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="U24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -2558,13 +2571,13 @@
         <v>101</v>
       </c>
       <c r="S25" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="T25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2623,13 +2636,13 @@
         <v>104</v>
       </c>
       <c r="S26" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="T26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -2688,13 +2701,13 @@
         <v>107</v>
       </c>
       <c r="S27" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="T27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -2753,13 +2766,13 @@
         <v>110</v>
       </c>
       <c r="S28" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="T28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -2818,13 +2831,13 @@
         <v>113</v>
       </c>
       <c r="S29" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="T29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="U29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -2883,13 +2896,13 @@
         <v>116</v>
       </c>
       <c r="S30" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="T30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -2948,13 +2961,13 @@
         <v>119</v>
       </c>
       <c r="S31" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="T31" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U31" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -3013,13 +3026,13 @@
         <v>122</v>
       </c>
       <c r="S32" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="T32" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="U32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -3413,9 +3426,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1" xr:uid="{7CDA70F1-5CFE-424C-BF1F-C7FEEFA68F6B}">
+  <autoFilter ref="A1:U38" xr:uid="{7CDA70F1-5CFE-424C-BF1F-C7FEEFA68F6B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U38">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="A1:A38"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
